--- a/output/below_50/tRNA-Lys-CTT-2-3.xlsx
+++ b/output/below_50/tRNA-Lys-CTT-2-3.xlsx
@@ -12,219 +12,279 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
   <si>
     <t>chr5</t>
   </si>
   <si>
-    <t>180648980</t>
-  </si>
-  <si>
-    <t>180649003</t>
+    <t>180649395</t>
+  </si>
+  <si>
+    <t>180649418</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>180649415</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>GTTTCCGCCCGGTTTCGAAC</t>
+  </si>
+  <si>
+    <t>CGG</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>18% (37)</t>
+  </si>
+  <si>
+    <t>20% (30)</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>180649396</t>
+  </si>
+  <si>
+    <t>180649419</t>
+  </si>
+  <si>
+    <t>180649416</t>
+  </si>
+  <si>
+    <t>TTTCCGCCCGGTTTCGAACC</t>
+  </si>
+  <si>
+    <t>GGG</t>
+  </si>
+  <si>
+    <t>25% (41)</t>
+  </si>
+  <si>
+    <t>37% (39)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>180649397</t>
+  </si>
+  <si>
+    <t>180649420</t>
+  </si>
+  <si>
+    <t>180649417</t>
+  </si>
+  <si>
+    <t>TTCCGCCCGGTTTCGAACCG</t>
+  </si>
+  <si>
+    <t>63% (54)</t>
+  </si>
+  <si>
+    <t>48% (44)</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>180649399</t>
+  </si>
+  <si>
+    <t>180649422</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>180648983</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>GTGGGTTCGAGCCCCACGTT</t>
-  </si>
-  <si>
-    <t>GGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
-  </si>
-  <si>
-    <t>43% (48)</t>
-  </si>
-  <si>
-    <t>99% (95)</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>180649402</t>
+  </si>
+  <si>
+    <t>GTCCCCGGTTCGAAACCGGG</t>
+  </si>
+  <si>
+    <t>100% (76)</t>
+  </si>
+  <si>
+    <t>90% (69)</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>180649425</t>
+  </si>
+  <si>
+    <t>180649405</t>
+  </si>
+  <si>
+    <t>AAGGTCCCCGGTTCGAAACC</t>
+  </si>
+  <si>
+    <t>53% (51)</t>
+  </si>
+  <si>
+    <t>82% (62)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>180649403</t>
+  </si>
+  <si>
+    <t>180649426</t>
+  </si>
+  <si>
+    <t>180649406</t>
+  </si>
+  <si>
+    <t>AAAGGTCCCCGGTTCGAAAC</t>
+  </si>
+  <si>
+    <t>19% (38)</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>64</t>
   </si>
   <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>180648981</t>
-  </si>
-  <si>
-    <t>180649004</t>
-  </si>
-  <si>
-    <t>180648984</t>
-  </si>
-  <si>
-    <t>CGTGGGTTCGAGCCCCACGT</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>63% (54)</t>
-  </si>
-  <si>
-    <t>71% (55)</t>
+    <t>180649414</t>
+  </si>
+  <si>
+    <t>180649437</t>
+  </si>
+  <si>
+    <t>180649434</t>
+  </si>
+  <si>
+    <t>CCGGGGACCTTTCGCGTGTG</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>96% (79)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>CCTCACACGCGAAAGGTCCC</t>
+  </si>
+  <si>
+    <t>69% (56)</t>
+  </si>
+  <si>
+    <t>27% (34)</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>180649421</t>
+  </si>
+  <si>
+    <t>180649444</t>
+  </si>
+  <si>
+    <t>180649424</t>
+  </si>
+  <si>
+    <t>ACGTTCGCCTCACACGCGAA</t>
+  </si>
+  <si>
+    <t>95% (67)</t>
+  </si>
+  <si>
+    <t>63% (51)</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>180649440</t>
+  </si>
+  <si>
+    <t>180649463</t>
+  </si>
+  <si>
+    <t>180649460</t>
+  </si>
+  <si>
+    <t>ACGTGATAACCACTACACTA</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>180649515</t>
+  </si>
+  <si>
+    <t>180649538</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>180648998</t>
-  </si>
-  <si>
-    <t>180649021</t>
-  </si>
-  <si>
-    <t>180649001</t>
-  </si>
-  <si>
-    <t>ACTCTTAATCTCAGGGTCGT</t>
-  </si>
-  <si>
-    <t>72% (57)</t>
-  </si>
-  <si>
-    <t>41% (41)</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>180648999</t>
-  </si>
-  <si>
-    <t>180649022</t>
-  </si>
-  <si>
-    <t>180649002</t>
-  </si>
-  <si>
-    <t>GACTCTTAATCTCAGGGTCG</t>
-  </si>
-  <si>
-    <t>46% (49)</t>
-  </si>
-  <si>
-    <t>22% (31)</t>
+    <t>180649535</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>GAGACGGCCGGGATAGCTCT</t>
+  </si>
+  <si>
+    <t>50% (50)</t>
+  </si>
+  <si>
+    <t>80% (61)</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>180649005</t>
-  </si>
-  <si>
-    <t>180649028</t>
-  </si>
-  <si>
-    <t>180649008</t>
-  </si>
-  <si>
-    <t>GCATGAGACTCTTAATCTCA</t>
-  </si>
-  <si>
-    <t>75% (58)</t>
-  </si>
-  <si>
-    <t>4% (15)</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>180649006</t>
-  </si>
-  <si>
-    <t>180649029</t>
-  </si>
-  <si>
-    <t>180649009</t>
-  </si>
-  <si>
-    <t>AGCATGAGACTCTTAATCTC</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>14% (26)</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>180649026</t>
-  </si>
-  <si>
-    <t>180649049</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>180649046</t>
-  </si>
-  <si>
-    <t>GCTCTACCGACTGAGCTAGC</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>56% (52)</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>180649027</t>
-  </si>
-  <si>
-    <t>180649050</t>
-  </si>
-  <si>
-    <t>180649047</t>
-  </si>
-  <si>
-    <t>CTCTACCGACTGAGCTAGCC</t>
-  </si>
-  <si>
-    <t>38% (46)</t>
-  </si>
-  <si>
-    <t>48% (44)</t>
-  </si>
-  <si>
-    <t>4</t>
+    <t>MIT Spec. Score: 32, Doench 2016: 50%, Moreno-Mateos: 80%</t>
+  </si>
+  <si>
+    <t>3.96132E+11</t>
   </si>
 </sst>
 </file>
@@ -269,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -292,10 +352,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -351,10 +411,10 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -384,7 +444,7 @@
         <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="R2" t="s">
         <v>15</v>
@@ -398,10 +458,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -410,7 +470,7 @@
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -425,25 +485,25 @@
         <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
         <v>29</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>32</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -457,22 +517,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -487,7 +547,7 @@
         <v>36</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -502,7 +562,7 @@
         <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -516,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -525,7 +585,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>42</v>
@@ -546,7 +606,7 @@
         <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
@@ -561,7 +621,7 @@
         <v>46</v>
       </c>
       <c r="Q5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -575,52 +635,52 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
         <v>50</v>
       </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" t="s">
         <v>53</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>55</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -634,52 +694,52 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
         <v>57</v>
       </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="L7" t="s">
         <v>58</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" t="s">
-        <v>61</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="O7" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Q7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -693,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -720,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
         <v>9</v>
@@ -729,22 +789,199 @@
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
       </c>
       <c r="S8" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" t="s">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>73</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O10" t="s">
+        <v>78</v>
+      </c>
+      <c r="P10" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" t="s">
+        <v>15</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" t="s">
+        <v>87</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
